--- a/2024/shuffle-architecute/Teste10/content/results/metrics_3_9.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_3_9.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_0</t>
+          <t>model_3_9_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9576584030263311</v>
+        <v>0.9898732564387884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7481565867518938</v>
+        <v>0.809622258591437</v>
       </c>
       <c r="D2" t="n">
-        <v>0.966027395817969</v>
+        <v>0.995153868404541</v>
       </c>
       <c r="E2" t="n">
-        <v>0.950639841466716</v>
+        <v>0.9586526494255085</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9509527656528365</v>
+        <v>0.9925955023872811</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1776986122131348</v>
+        <v>0.04249977692961693</v>
       </c>
       <c r="H2" t="n">
-        <v>1.684077978134155</v>
+        <v>1.273056864738464</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01019006222486496</v>
+        <v>0.01638838462531567</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7551668286323547</v>
+        <v>0.04080218076705933</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3826784193515778</v>
+        <v>0.02859527803957462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_1</t>
+          <t>model_3_9_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.957444967066012</v>
+        <v>0.9897540434826414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7479358144576441</v>
+        <v>0.8095146454465398</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9652334195929081</v>
+        <v>0.9951857865679219</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9498414182706043</v>
+        <v>0.9596643638322222</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9501547062035167</v>
+        <v>0.9927387359678472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1785943657159805</v>
+        <v>0.04300008714199066</v>
       </c>
       <c r="H3" t="n">
-        <v>1.685554385185242</v>
+        <v>1.273776531219482</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01042821444571018</v>
+        <v>0.01628044620156288</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7673819065093994</v>
+        <v>0.03980380296707153</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3889050483703613</v>
+        <v>0.02804212644696236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_2</t>
+          <t>model_3_9_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9572098419488397</v>
+        <v>0.9896313652950126</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7476992864574181</v>
+        <v>0.809403443322848</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9636921474720659</v>
+        <v>0.9952153254756853</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9490292547920457</v>
+        <v>0.9606793729270905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9493288088476288</v>
+        <v>0.9928813531281886</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1795811206102371</v>
+        <v>0.04351493716239929</v>
       </c>
       <c r="H4" t="n">
-        <v>1.687135934829712</v>
+        <v>1.2745201587677</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01089051831513643</v>
+        <v>0.01618055254220963</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7798073291778564</v>
+        <v>0.03880217671394348</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3953489363193512</v>
+        <v>0.02749135531485081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_3</t>
+          <t>model_3_9_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9569545709308364</v>
+        <v>0.9895051485350859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7474482854390185</v>
+        <v>0.8092885851328597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9614507965499035</v>
+        <v>0.9952425770394212</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9482049015292403</v>
+        <v>0.9616972213428732</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9484774999790769</v>
+        <v>0.9930233288745532</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1806524395942688</v>
+        <v>0.04404464736580849</v>
       </c>
       <c r="H5" t="n">
-        <v>1.688814401626587</v>
+        <v>1.275288105010986</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01156281027942896</v>
+        <v>0.01608839444816113</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7924191951751709</v>
+        <v>0.03779774904251099</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4019910395145416</v>
+        <v>0.02694306336343288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_4</t>
+          <t>model_3_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9566803711464741</v>
+        <v>0.9893753252567569</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7471840042091487</v>
+        <v>0.8091700628135736</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9585535946472556</v>
+        <v>0.9952676723997284</v>
       </c>
       <c r="E6" t="n">
-        <v>0.947369510307157</v>
+        <v>0.9627172274443601</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9476027691886397</v>
+        <v>0.9931646262061657</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1818032115697861</v>
+        <v>0.04458948597311974</v>
       </c>
       <c r="H6" t="n">
-        <v>1.690581798553467</v>
+        <v>1.276080727577209</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01243182457983494</v>
+        <v>0.01600352860987186</v>
       </c>
       <c r="J6" t="n">
-        <v>0.805199921131134</v>
+        <v>0.03679119050502777</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4088159203529358</v>
+        <v>0.02639738842844963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_5</t>
+          <t>model_3_9_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9563885903028944</v>
+        <v>0.9892418111751394</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7469075197725228</v>
+        <v>0.8090477701397687</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9550412326788864</v>
+        <v>0.995290647977857</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9465242992866032</v>
+        <v>0.9637388824235444</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9467065838500974</v>
+        <v>0.9933052258341649</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1830277442932129</v>
+        <v>0.04514981433749199</v>
       </c>
       <c r="H7" t="n">
-        <v>1.69243061542511</v>
+        <v>1.276898384094238</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01348535530269146</v>
+        <v>0.01592583209276199</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8181309103965759</v>
+        <v>0.03578301146626472</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4158081412315369</v>
+        <v>0.02585440874099731</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_6</t>
+          <t>model_3_9_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9560804238292304</v>
+        <v>0.9891045170225617</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7466198628262798</v>
+        <v>0.8089216632203957</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9509526794864521</v>
+        <v>0.9953116506034274</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9456704686076982</v>
+        <v>0.9647614781017887</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9457908742666241</v>
+        <v>0.9934450647108417</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1843210607767105</v>
+        <v>0.04572601243853569</v>
       </c>
       <c r="H8" t="n">
-        <v>1.694354057312012</v>
+        <v>1.27774178981781</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01471171341836452</v>
+        <v>0.01585480570793152</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8311938047409058</v>
+        <v>0.03477389365434647</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4229527413845062</v>
+        <v>0.02531436830759048</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_7</t>
+          <t>model_3_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9557569363378416</v>
+        <v>0.9889633495663167</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7463219772967642</v>
+        <v>0.8087916342824295</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9463232488240504</v>
+        <v>0.9953307257169408</v>
       </c>
       <c r="E9" t="n">
-        <v>0.944809003138203</v>
+        <v>0.9657842331585669</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9448572799042466</v>
+        <v>0.9935840888846603</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1856786608695984</v>
+        <v>0.04631846025586128</v>
       </c>
       <c r="H9" t="n">
-        <v>1.696346044540405</v>
+        <v>1.278611183166504</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01610030978918076</v>
+        <v>0.01579029858112335</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8443734049797058</v>
+        <v>0.03376462683081627</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4302369058132172</v>
+        <v>0.02477747574448586</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_8</t>
+          <t>model_3_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9554191555169349</v>
+        <v>0.9888182473075744</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7460146789850055</v>
+        <v>0.8086576630064285</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9411868552856356</v>
+        <v>0.9953480187710327</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9439408264835304</v>
+        <v>0.9668068015855591</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9439073642152254</v>
+        <v>0.9937223116645202</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1870962530374527</v>
+        <v>0.04692742228507996</v>
       </c>
       <c r="H10" t="n">
-        <v>1.698401093482971</v>
+        <v>1.279507160186768</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01764096692204475</v>
+        <v>0.01573181711137295</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8576557636260986</v>
+        <v>0.0327555425465107</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4376483559608459</v>
+        <v>0.02424367517232895</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_9</t>
+          <t>model_3_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9550681776847304</v>
+        <v>0.9886690959146668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7456988074990543</v>
+        <v>0.8085196320586778</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9355740058019014</v>
+        <v>0.9953635892858749</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9430670355182033</v>
+        <v>0.9678279986021462</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9429427800961284</v>
+        <v>0.993859594433635</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1885692477226257</v>
+        <v>0.04755338281393051</v>
       </c>
       <c r="H11" t="n">
-        <v>1.700513243675232</v>
+        <v>1.28043007850647</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01932453736662865</v>
+        <v>0.01567916199564934</v>
       </c>
       <c r="J11" t="n">
-        <v>0.871023952960968</v>
+        <v>0.03174780681729317</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4451742768287659</v>
+        <v>0.02371350675821304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_10</t>
+          <t>model_3_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9547048165528755</v>
+        <v>0.9885158255498175</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7453750691342531</v>
+        <v>0.8083775436457206</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9295145840853997</v>
+        <v>0.9953775576099468</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9421883621431314</v>
+        <v>0.9688474435165968</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9419648325512899</v>
+        <v>0.9939959556556535</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1900941729545593</v>
+        <v>0.04819662123918533</v>
       </c>
       <c r="H12" t="n">
-        <v>1.702678084373474</v>
+        <v>1.281380295753479</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02114205807447433</v>
+        <v>0.01563192345201969</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8844669461250305</v>
+        <v>0.03074180334806442</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4528044462203979</v>
+        <v>0.02318689599633217</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_11</t>
+          <t>model_3_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9543299819791686</v>
+        <v>0.988358329098256</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7450441576632907</v>
+        <v>0.8082312814629143</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9230350834566075</v>
+        <v>0.9953900007167041</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9413056367842373</v>
+        <v>0.9698641836558159</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9409748268554823</v>
+        <v>0.9941313187026645</v>
       </c>
       <c r="G13" t="n">
-        <v>0.191667303442955</v>
+        <v>0.04885760322213173</v>
       </c>
       <c r="H13" t="n">
-        <v>1.704890966415405</v>
+        <v>1.282358288764954</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0230855792760849</v>
+        <v>0.01558984536677599</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8979718685150146</v>
+        <v>0.02973847091197968</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4605287313461304</v>
+        <v>0.02266413904726505</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9539445658701835</v>
+        <v>0.9881964721357305</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7447066816753825</v>
+        <v>0.8080807375619898</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9161613731840161</v>
+        <v>0.9954010067159673</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9404197839467319</v>
+        <v>0.9708772367950267</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9399741887823574</v>
+        <v>0.9942655548792665</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1932847946882248</v>
+        <v>0.04953688010573387</v>
       </c>
       <c r="H14" t="n">
-        <v>1.707147598266602</v>
+        <v>1.28336501121521</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02514734491705894</v>
+        <v>0.01555262599140406</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9115245938301086</v>
+        <v>0.02873877435922623</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4683359563350677</v>
+        <v>0.02214573323726654</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_13</t>
+          <t>model_3_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9535492013213709</v>
+        <v>0.9880302049397943</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7443632138967015</v>
+        <v>0.8079258830466163</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9089170350469432</v>
+        <v>0.9954106705164201</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9395312660030667</v>
+        <v>0.9718856344530488</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9389638023213766</v>
+        <v>0.9943986277404775</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1949440538883209</v>
+        <v>0.05023467168211937</v>
       </c>
       <c r="H15" t="n">
-        <v>1.709444284439087</v>
+        <v>1.284400463104248</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02732028067111969</v>
+        <v>0.0155199458822608</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9251182079315186</v>
+        <v>0.02774367295205593</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4762192070484161</v>
+        <v>0.02163182571530342</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_14</t>
+          <t>model_3_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9531447212830809</v>
+        <v>0.9878593850337947</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7440142820337436</v>
+        <v>0.8077666509620267</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9013239847192167</v>
+        <v>0.9954191202465066</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9386409152225135</v>
+        <v>0.9728882358523665</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9379449108092928</v>
+        <v>0.9945304351484059</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1966415792703629</v>
+        <v>0.05095156282186508</v>
       </c>
       <c r="H16" t="n">
-        <v>1.711777687072754</v>
+        <v>1.285465240478516</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02959781140089035</v>
+        <v>0.01549137104302645</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9387397170066833</v>
+        <v>0.02675429172813892</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4841688871383667</v>
+        <v>0.02112279832363129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_15</t>
+          <t>model_3_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9527317556871129</v>
+        <v>0.9876838861174475</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7436603453859114</v>
+        <v>0.8076029344600422</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8934029729367917</v>
+        <v>0.9954263032709794</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9377493185871631</v>
+        <v>0.9738845973048481</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9369185207363334</v>
+        <v>0.9946608690191114</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1983746886253357</v>
+        <v>0.05168809369206429</v>
       </c>
       <c r="H17" t="n">
-        <v>1.714144468307495</v>
+        <v>1.28656017780304</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0319737121462822</v>
+        <v>0.01546707935631275</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9523804187774658</v>
+        <v>0.02577106654644012</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4921770095825195</v>
+        <v>0.02061907947063446</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_16</t>
+          <t>model_3_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9523109871935623</v>
+        <v>0.9875036125034071</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7433018617937283</v>
+        <v>0.8074346652927821</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8851745854406096</v>
+        <v>0.9954324145708989</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9368570873831603</v>
+        <v>0.9748729591287337</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9358855784369784</v>
+        <v>0.9947898207825703</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2001405954360962</v>
+        <v>0.05244466289877892</v>
       </c>
       <c r="H18" t="n">
-        <v>1.716541647911072</v>
+        <v>1.28768527507782</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03444181382656097</v>
+        <v>0.01544641330838203</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9660307765007019</v>
+        <v>0.02479573711752892</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5002362728118896</v>
+        <v>0.02012108266353607</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_17</t>
+          <t>model_3_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9518829430647973</v>
+        <v>0.9873184379579635</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7429392375159003</v>
+        <v>0.8072617449304696</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8766551193171479</v>
+        <v>0.9954375388480485</v>
       </c>
       <c r="E19" t="n">
-        <v>0.935964660034637</v>
+        <v>0.9758524589575667</v>
       </c>
       <c r="F19" t="n">
-        <v>0.934846851725156</v>
+        <v>0.9949172155969465</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2019370049238205</v>
+        <v>0.05322180688381195</v>
       </c>
       <c r="H19" t="n">
-        <v>1.718966484069824</v>
+        <v>1.288841485977173</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03699722141027451</v>
+        <v>0.01542908418923616</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9796841144561768</v>
+        <v>0.0238291509449482</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5083406567573547</v>
+        <v>0.01962910033762455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_18</t>
+          <t>model_3_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9514482388089467</v>
+        <v>0.9871282179900457</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7425728392517772</v>
+        <v>0.8070841255470225</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8678634596867754</v>
+        <v>0.9954416806120536</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9350726131179876</v>
+        <v>0.9768216675752557</v>
       </c>
       <c r="F20" t="n">
-        <v>0.933803276464884</v>
+        <v>0.9950428491261674</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2037613540887833</v>
+        <v>0.05402011424303055</v>
       </c>
       <c r="H20" t="n">
-        <v>1.721416592597961</v>
+        <v>1.290029406547546</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03963427618145943</v>
+        <v>0.01541507709771395</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9933316111564636</v>
+        <v>0.02287272177636623</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5164828896522522</v>
+        <v>0.01914391666650772</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_19</t>
+          <t>model_3_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9510073986917168</v>
+        <v>0.9869328470055441</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7422030277650189</v>
+        <v>0.8069016787482947</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8588146470358851</v>
+        <v>0.9954449080925155</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9341814073487422</v>
+        <v>0.9777797197398059</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9327555692662692</v>
+        <v>0.9951666709965002</v>
       </c>
       <c r="G21" t="n">
-        <v>0.205611452460289</v>
+        <v>0.05484003946185112</v>
       </c>
       <c r="H21" t="n">
-        <v>1.723889589309692</v>
+        <v>1.29124927520752</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0423484593629837</v>
+        <v>0.01540416292846203</v>
       </c>
       <c r="J21" t="n">
-        <v>1.006966352462769</v>
+        <v>0.02192730270326138</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5246573686599731</v>
+        <v>0.0186657328158617</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_20</t>
+          <t>model_3_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9505608841951063</v>
+        <v>0.9867321858082385</v>
       </c>
       <c r="C22" t="n">
-        <v>0.741830074873191</v>
+        <v>0.8067143424515978</v>
       </c>
       <c r="D22" t="n">
-        <v>0.849524015849152</v>
+        <v>0.9954473504850417</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9332914355638107</v>
+        <v>0.9787248662983506</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9317044374419255</v>
+        <v>0.9952884914826475</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2074853926897049</v>
+        <v>0.05568217858672142</v>
       </c>
       <c r="H22" t="n">
-        <v>1.726383566856384</v>
+        <v>1.292502045631409</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04513518139719963</v>
+        <v>0.01539590395987034</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02058207988739</v>
+        <v>0.02099461667239666</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5328585505485535</v>
+        <v>0.01819527707993984</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_21</t>
+          <t>model_3_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9501091960298356</v>
+        <v>0.986526060681078</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7414543279177914</v>
+        <v>0.8065220418086885</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8400059852383815</v>
+        <v>0.9954489684078642</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9324031351581689</v>
+        <v>0.9796559597785319</v>
       </c>
       <c r="F23" t="n">
-        <v>0.930650556566164</v>
+        <v>0.9954081698934883</v>
       </c>
       <c r="G23" t="n">
-        <v>0.209381029009819</v>
+        <v>0.05654723569750786</v>
       </c>
       <c r="H23" t="n">
-        <v>1.728896141052246</v>
+        <v>1.293787956237793</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0479901060461998</v>
+        <v>0.0153904315084219</v>
       </c>
       <c r="J23" t="n">
-        <v>1.034172296524048</v>
+        <v>0.02007579989731312</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5410811901092529</v>
+        <v>0.01773309335112572</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_22</t>
+          <t>model_3_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9496527768768546</v>
+        <v>0.9863143697597604</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7410760415656937</v>
+        <v>0.8063246463511698</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8302733609149029</v>
+        <v>0.9954499192503563</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9315169013418721</v>
+        <v>0.9805713466870455</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9295945796326037</v>
+        <v>0.9955255376898205</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2112965136766434</v>
+        <v>0.05743566527962685</v>
       </c>
       <c r="H24" t="n">
-        <v>1.731425762176514</v>
+        <v>1.295107960700989</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05090940371155739</v>
+        <v>0.01538721658289433</v>
       </c>
       <c r="J24" t="n">
-        <v>1.047730803489685</v>
+        <v>0.01917248219251633</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5493201613426208</v>
+        <v>0.01727983355522156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_23</t>
+          <t>model_3_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9491920524324253</v>
+        <v>0.9860969309613811</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7406954615960215</v>
+        <v>0.8061220919096451</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8203391020901386</v>
+        <v>0.9954501227342986</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9306330609641169</v>
+        <v>0.981469734373733</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9285370821336847</v>
+        <v>0.9956404081476317</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2132300734519958</v>
+        <v>0.05834820866584778</v>
       </c>
       <c r="H25" t="n">
-        <v>1.733970761299133</v>
+        <v>1.296462416648865</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05388917773962021</v>
+        <v>0.01538652833551168</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06125271320343</v>
+        <v>0.01828594133257866</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5575710535049438</v>
+        <v>0.01683621853590012</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_24</t>
+          <t>model_3_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9487274026498231</v>
+        <v>0.9858736035818886</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7403128484917654</v>
+        <v>0.8059142665749357</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8102152589095351</v>
+        <v>0.995449723787351</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9297519466514488</v>
+        <v>0.9823493589674893</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9274786073414176</v>
+        <v>0.9957526140062801</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2151801288127899</v>
+        <v>0.05928545817732811</v>
       </c>
       <c r="H26" t="n">
-        <v>1.736529111862183</v>
+        <v>1.297852277755737</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05692581832408905</v>
+        <v>0.0153878778219223</v>
       </c>
       <c r="J26" t="n">
-        <v>1.074733138084412</v>
+        <v>0.01741791516542435</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5658295154571533</v>
+        <v>0.01640289276838303</v>
       </c>
     </row>
   </sheetData>
